--- a/harjoitustyo_rgb_led_asm/register_usage.xlsx
+++ b/harjoitustyo_rgb_led_asm/register_usage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antti\TAMK\Mikrokontrollerien-ohjelmointi\harjoitustyo_rgb_led_asm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA7CADC-435A-4A9A-978A-1782975CAC75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03BC7A3C-7B89-469B-9C5E-DC58BD5A5CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19305" yWindow="-4695" windowWidth="19410" windowHeight="20985" xr2:uid="{1032E47F-12EC-40E7-A9A3-1589B66C4AE4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1032E47F-12EC-40E7-A9A3-1589B66C4AE4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="81">
   <si>
     <t>r0</t>
   </si>
@@ -255,6 +255,30 @@
   </si>
   <si>
     <t>Mode step val</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>pot_t_val_reg</t>
+  </si>
+  <si>
+    <t>pot_r_val_reg</t>
+  </si>
+  <si>
+    <t>pot_g_val_reg</t>
+  </si>
+  <si>
+    <t>pot_b_val_reg</t>
+  </si>
+  <si>
+    <t>pow_state_val_reg</t>
+  </si>
+  <si>
+    <t>mode_state_val_reg</t>
+  </si>
+  <si>
+    <t>mode_step_val_reg</t>
   </si>
 </sst>
 </file>
@@ -316,10 +340,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{07D827E7-D3D2-42DE-940D-8DFBA223E8F4}" name="Table1" displayName="Table1" ref="B2:C34" totalsRowShown="0">
-  <autoFilter ref="B2:C34" xr:uid="{07D827E7-D3D2-42DE-940D-8DFBA223E8F4}"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{07D827E7-D3D2-42DE-940D-8DFBA223E8F4}" name="Table1" displayName="Table1" ref="B2:D34" totalsRowShown="0">
+  <autoFilter ref="B2:D34" xr:uid="{07D827E7-D3D2-42DE-940D-8DFBA223E8F4}"/>
+  <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{B37DF2DD-CC9E-4DCB-9091-28099F820C06}" name="Register"/>
+    <tableColumn id="3" xr3:uid="{CB1B0A6F-59C3-41BA-9D7A-A9022624B854}" name="name"/>
     <tableColumn id="2" xr3:uid="{D85F0F6F-DD4F-4FBD-9C24-54242A89B1B2}" name="Usage"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -327,8 +352,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C0C0B165-42AF-49AA-8417-FD482DF9096A}" name="Table2" displayName="Table2" ref="E2:G11" totalsRowShown="0">
-  <autoFilter ref="E2:G11" xr:uid="{C0C0B165-42AF-49AA-8417-FD482DF9096A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C0C0B165-42AF-49AA-8417-FD482DF9096A}" name="Table2" displayName="Table2" ref="F2:H11" totalsRowShown="0">
+  <autoFilter ref="F2:H11" xr:uid="{C0C0B165-42AF-49AA-8417-FD482DF9096A}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{BAD34ACE-7C3C-4DA3-8CB3-6DD2B2FE3792}" name="PIN"/>
     <tableColumn id="2" xr3:uid="{699D7536-AF44-4B71-B207-B9209B9EE3D6}" name="REG Pin"/>
@@ -655,304 +680,329 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{486F34D8-B41E-4443-B73A-729848F16D89}">
-  <dimension ref="B2:G34"/>
+  <dimension ref="B2:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>32</v>
       </c>
       <c r="C2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" t="s">
         <v>33</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>43</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>45</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>42</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>49</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>46</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
       <c r="C5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" t="s">
         <v>34</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>50</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>47</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>3</v>
       </c>
       <c r="C6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" t="s">
         <v>35</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>51</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>48</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" t="s">
         <v>36</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>66</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>61</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" t="s">
         <v>37</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>67</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>62</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" t="s">
         <v>38</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>68</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>63</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>7</v>
       </c>
       <c r="C10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" t="s">
         <v>71</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>69</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>64</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" t="s">
         <v>72</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>70</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>65</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>16</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>17</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>18</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>19</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>24</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>25</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>29</v>
       </c>
